--- a/Izquierda.xlsx
+++ b/Izquierda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ECI\IABO\Acelerometro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB08DBE-B853-4923-9B19-36142AAD0223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD0CA06-CF90-465F-900D-615767A8F54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16B98688-C67A-421B-ADDB-64CD86CB8158}"/>
   </bookViews>
@@ -31,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CAC7D7-2F18-450A-9125-4EB064124414}">
-  <dimension ref="A1:F960"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
-      <selection activeCell="B960" sqref="B960"/>
+    <sheetView tabSelected="1" topLeftCell="A977" workbookViewId="0">
+      <selection activeCell="H989" sqref="H989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19589,6 +19593,806 @@
         <v>12.573</v>
       </c>
     </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A961">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B961">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C961">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="D961">
+        <v>267.08999999999997</v>
+      </c>
+      <c r="E961">
+        <v>22.949000000000002</v>
+      </c>
+      <c r="F961">
+        <v>-46.57</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A962">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="B962">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C962">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D962">
+        <v>132.32400000000001</v>
+      </c>
+      <c r="E962">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="F962">
+        <v>-29.297000000000001</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A963">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="B963">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C963">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D963">
+        <v>-64.209000000000003</v>
+      </c>
+      <c r="E963">
+        <v>15.259</v>
+      </c>
+      <c r="F963">
+        <v>-8.6669999999999998</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A964">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B964">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="C964">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D964">
+        <v>-329.89499999999998</v>
+      </c>
+      <c r="E964">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="F964">
+        <v>44.25</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A965">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="B965">
+        <v>0.626</v>
+      </c>
+      <c r="C965">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D965">
+        <v>-249.268</v>
+      </c>
+      <c r="E965">
+        <v>-3.2349999999999999</v>
+      </c>
+      <c r="F965">
+        <v>73.058999999999997</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A966">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="B966">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C966">
+        <v>0.873</v>
+      </c>
+      <c r="D966">
+        <v>166.87</v>
+      </c>
+      <c r="E966">
+        <v>-3.54</v>
+      </c>
+      <c r="F966">
+        <v>-49.866</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A967">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="B967">
+        <v>0.495</v>
+      </c>
+      <c r="C967">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="D967">
+        <v>265.25900000000001</v>
+      </c>
+      <c r="E967">
+        <v>4.944</v>
+      </c>
+      <c r="F967">
+        <v>-47.667999999999999</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A968">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="B968">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C968">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D968">
+        <v>130.554</v>
+      </c>
+      <c r="E968">
+        <v>-27.161000000000001</v>
+      </c>
+      <c r="F968">
+        <v>-16.356999999999999</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A969">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="B969">
+        <v>0.35</v>
+      </c>
+      <c r="C969">
+        <v>0.74</v>
+      </c>
+      <c r="D969">
+        <v>-179.01599999999999</v>
+      </c>
+      <c r="E969">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="F969">
+        <v>13.855</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A970">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="B970">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="C970">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D970">
+        <v>-285.88900000000001</v>
+      </c>
+      <c r="E970">
+        <v>-18.004999999999999</v>
+      </c>
+      <c r="F970">
+        <v>68.787000000000006</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A971">
+        <v>-0.20799999999999999</v>
+      </c>
+      <c r="B971">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C971">
+        <v>1.101</v>
+      </c>
+      <c r="D971">
+        <v>211.91399999999999</v>
+      </c>
+      <c r="E971">
+        <v>-18.494</v>
+      </c>
+      <c r="F971">
+        <v>-14.587</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A972">
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="B972">
+        <v>0.438</v>
+      </c>
+      <c r="C972">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D972">
+        <v>257.38499999999999</v>
+      </c>
+      <c r="E972">
+        <v>24.719000000000001</v>
+      </c>
+      <c r="F972">
+        <v>-22.4</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A973">
+        <v>-0.153</v>
+      </c>
+      <c r="B973">
+        <v>0.17</v>
+      </c>
+      <c r="C973">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D973">
+        <v>202.02600000000001</v>
+      </c>
+      <c r="E973">
+        <v>-19.835999999999999</v>
+      </c>
+      <c r="F973">
+        <v>-6.7750000000000004</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A974">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="B974">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C974">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D974">
+        <v>-48.279000000000003</v>
+      </c>
+      <c r="E974">
+        <v>18.187999999999999</v>
+      </c>
+      <c r="F974">
+        <v>14.099</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A975">
+        <v>-0.193</v>
+      </c>
+      <c r="B975">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="C975">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D975">
+        <v>-337.58499999999998</v>
+      </c>
+      <c r="E975">
+        <v>9.3989999999999991</v>
+      </c>
+      <c r="F975">
+        <v>23.376000000000001</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A976">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="B976">
+        <v>0.45</v>
+      </c>
+      <c r="C976">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="D976">
+        <v>-206.17699999999999</v>
+      </c>
+      <c r="E976">
+        <v>-20.751999999999999</v>
+      </c>
+      <c r="F976">
+        <v>33.752000000000002</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A977">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="B977">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="C977">
+        <v>0.878</v>
+      </c>
+      <c r="D977">
+        <v>44.25</v>
+      </c>
+      <c r="E977">
+        <v>25.818000000000001</v>
+      </c>
+      <c r="F977">
+        <v>-19.774999999999999</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A978">
+        <v>0</v>
+      </c>
+      <c r="B978">
+        <v>0.496</v>
+      </c>
+      <c r="C978">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D978">
+        <v>163.81800000000001</v>
+      </c>
+      <c r="E978">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="F978">
+        <v>-33.020000000000003</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A979">
+        <v>0.05</v>
+      </c>
+      <c r="B979">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="C979">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="D979">
+        <v>195.435</v>
+      </c>
+      <c r="E979">
+        <v>-2.4409999999999998</v>
+      </c>
+      <c r="F979">
+        <v>-29.358000000000001</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A980">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B980">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C980">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D980">
+        <v>-39.063000000000002</v>
+      </c>
+      <c r="E980">
+        <v>-14.709</v>
+      </c>
+      <c r="F980">
+        <v>-1.343</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A981">
+        <v>0.05</v>
+      </c>
+      <c r="B981">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C981">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D981">
+        <v>-277.52699999999999</v>
+      </c>
+      <c r="E981">
+        <v>-33.752000000000002</v>
+      </c>
+      <c r="F981">
+        <v>25.696000000000002</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A982">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="B982">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C982">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="D982">
+        <v>-63.904000000000003</v>
+      </c>
+      <c r="E982">
+        <v>-51.758000000000003</v>
+      </c>
+      <c r="F982">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A983">
+        <v>0.06</v>
+      </c>
+      <c r="B983">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C983">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D983">
+        <v>328.18599999999998</v>
+      </c>
+      <c r="E983">
+        <v>24.536000000000001</v>
+      </c>
+      <c r="F983">
+        <v>-38.573999999999998</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A984">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="B984">
+        <v>0.191</v>
+      </c>
+      <c r="C984">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D984">
+        <v>258.60599999999999</v>
+      </c>
+      <c r="E984">
+        <v>20.568999999999999</v>
+      </c>
+      <c r="F984">
+        <v>-30.762</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A985">
+        <v>0.125</v>
+      </c>
+      <c r="B985">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C985">
+        <v>0.66</v>
+      </c>
+      <c r="D985">
+        <v>-27.893000000000001</v>
+      </c>
+      <c r="E985">
+        <v>-21.606000000000002</v>
+      </c>
+      <c r="F985">
+        <v>-13.305999999999999</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A986">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="B986">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="C986">
+        <v>1.002</v>
+      </c>
+      <c r="D986">
+        <v>-334.71699999999998</v>
+      </c>
+      <c r="E986">
+        <v>-18.187999999999999</v>
+      </c>
+      <c r="F986">
+        <v>-0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A987">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="B987">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="C987">
+        <v>0.94</v>
+      </c>
+      <c r="D987">
+        <v>-291.68700000000001</v>
+      </c>
+      <c r="E987">
+        <v>-27.832000000000001</v>
+      </c>
+      <c r="F987">
+        <v>15.503</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A988">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="B988">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="C988">
+        <v>1.097</v>
+      </c>
+      <c r="D988">
+        <v>15.076000000000001</v>
+      </c>
+      <c r="E988">
+        <v>4.8220000000000001</v>
+      </c>
+      <c r="F988">
+        <v>-12.817</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A989">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="B989">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="C989">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="D989">
+        <v>345.642</v>
+      </c>
+      <c r="E989">
+        <v>30.762</v>
+      </c>
+      <c r="F989">
+        <v>-10.497999999999999</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A990">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="B990">
+        <v>0.245</v>
+      </c>
+      <c r="C990">
+        <v>0.76</v>
+      </c>
+      <c r="D990">
+        <v>257.935</v>
+      </c>
+      <c r="E990">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="F990">
+        <v>1.831</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A991">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B991">
+        <v>0.154</v>
+      </c>
+      <c r="C991">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D991">
+        <v>-31.981999999999999</v>
+      </c>
+      <c r="E991">
+        <v>-3.2959999999999998</v>
+      </c>
+      <c r="F991">
+        <v>15.015000000000001</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A992">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="B992">
+        <v>0.35</v>
+      </c>
+      <c r="C992">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D992">
+        <v>-319.03100000000001</v>
+      </c>
+      <c r="E992">
+        <v>-17.821999999999999</v>
+      </c>
+      <c r="F992">
+        <v>14.954000000000001</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A993">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="B993">
+        <v>0.501</v>
+      </c>
+      <c r="C993">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="D993">
+        <v>-231.506</v>
+      </c>
+      <c r="E993">
+        <v>-32.103999999999999</v>
+      </c>
+      <c r="F993">
+        <v>28.076000000000001</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A994">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="B994">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="C994">
+        <v>1.089</v>
+      </c>
+      <c r="D994">
+        <v>233.459</v>
+      </c>
+      <c r="E994">
+        <v>24.902000000000001</v>
+      </c>
+      <c r="F994">
+        <v>-15.259</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A995">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="B995">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="C995">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="D995">
+        <v>357.42200000000003</v>
+      </c>
+      <c r="E995">
+        <v>40.161000000000001</v>
+      </c>
+      <c r="F995">
+        <v>35.094999999999999</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A996">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B996">
+        <v>0.23</v>
+      </c>
+      <c r="C996">
+        <v>0.81</v>
+      </c>
+      <c r="D996">
+        <v>190.73500000000001</v>
+      </c>
+      <c r="E996">
+        <v>-7.9349999999999996</v>
+      </c>
+      <c r="F996">
+        <v>17.760999999999999</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A997">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B997">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C997">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D997">
+        <v>-123.474</v>
+      </c>
+      <c r="E997">
+        <v>16.356999999999999</v>
+      </c>
+      <c r="F997">
+        <v>-28.381</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A998">
+        <v>-0.109</v>
+      </c>
+      <c r="B998">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C998">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="D998">
+        <v>-377.93</v>
+      </c>
+      <c r="E998">
+        <v>-16.785</v>
+      </c>
+      <c r="F998">
+        <v>-3.9060000000000001</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A999">
+        <v>-0.04</v>
+      </c>
+      <c r="B999">
+        <v>0.7</v>
+      </c>
+      <c r="C999">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D999">
+        <v>-350.76900000000001</v>
+      </c>
+      <c r="E999">
+        <v>41.381999999999998</v>
+      </c>
+      <c r="F999">
+        <v>42.296999999999997</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1000">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="B1000">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="C1000">
+        <v>1.006</v>
+      </c>
+      <c r="D1000">
+        <v>131.65299999999999</v>
+      </c>
+      <c r="E1000">
+        <v>11.901999999999999</v>
+      </c>
+      <c r="F1000">
+        <v>-27.344000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
